--- a/data/acs_dictionary.xlsx
+++ b/data/acs_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monicaalexander/src/applied-stats-2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204BC57-241A-8F4D-BC56-84418A6D3119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9F6DFA-A3A2-5749-9B61-1CFB041A6BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14400" xr2:uid="{DAE25541-4D63-024E-8AB0-78ACAA511157}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>proportion of population aged 25+ who have at least a bachelor degree</t>
   </si>
   <si>
-    <t>proportion of population age 16+ who are employed</t>
-  </si>
-  <si>
     <t>proportion of population age 16+ who are not in labor force</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>county FIPS code</t>
+  </si>
+  <si>
+    <t>proportion of population age 16+ who are unemployed</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,10 +490,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
